--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
         <v>43828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E8" s="3">
         <v>120400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>140000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>147300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>133100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>128200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>145300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>149800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>127000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>118100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>125400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>133700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>118600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>112400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E9" s="3">
         <v>98900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>112000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>112400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>107100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>119600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>121300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>99200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>101300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>107700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>96700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>91400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E10" s="3">
         <v>21500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,13 +1006,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1003,11 +1023,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1015,11 +1035,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>39100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E17" s="3">
         <v>113600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>126900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>133400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>121400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>134500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>136300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>163000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>113400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>116100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>123500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>111200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>106400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E18" s="3">
         <v>6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,31 +1245,32 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-600</v>
       </c>
       <c r="F20" s="3">
         <v>-600</v>
       </c>
       <c r="G20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-900</v>
       </c>
       <c r="K20" s="3">
         <v>-900</v>
@@ -1245,69 +1279,75 @@
         <v>-900</v>
       </c>
       <c r="M20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-700</v>
       </c>
       <c r="Q20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E21" s="3">
         <v>11800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-31200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1500</v>
       </c>
       <c r="H24" s="3">
         <v>1500</v>
       </c>
       <c r="I24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,11 +1710,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1661,14 +1722,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>13200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,31 +1843,34 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>600</v>
       </c>
       <c r="F32" s="3">
         <v>600</v>
       </c>
       <c r="G32" s="3">
+        <v>600</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>900</v>
       </c>
       <c r="K32" s="3">
         <v>900</v>
@@ -1809,69 +1879,75 @@
         <v>900</v>
       </c>
       <c r="M32" s="3">
+        <v>900</v>
+      </c>
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>700</v>
       </c>
       <c r="Q32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
         <v>43828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E43" s="3">
         <v>56700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>61500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>66400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>67900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>62800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>58600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E44" s="3">
         <v>57500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>60800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>58700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>60500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>67700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>66400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>62700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>65600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>51200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>50300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E46" s="3">
         <v>127000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>139400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>142200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>139900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>142900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>135000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>133100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>132200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>134400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>120900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>117000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E48" s="3">
         <v>134900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>133900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>133500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>118600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>117600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>119400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>121700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>123800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>123000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>121500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>120200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E49" s="3">
         <v>120400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>121600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>122900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>124200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>125400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>126800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>170200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>171600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>173000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>174400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>175900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
         <v>4300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3800</v>
       </c>
       <c r="J52" s="3">
         <v>3800</v>
       </c>
       <c r="K52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>389300</v>
+      </c>
+      <c r="E54" s="3">
         <v>386600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>393000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>399000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>385600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>388400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>389800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>396700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>391000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>430700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>431900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>433300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>418600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>414700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E57" s="3">
         <v>26700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>29300</v>
       </c>
       <c r="H57" s="3">
         <v>29300</v>
       </c>
       <c r="I57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J57" s="3">
         <v>35500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2830,210 +2964,225 @@
         <v>9900</v>
       </c>
       <c r="M58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N58" s="3">
         <v>9200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E59" s="3">
         <v>14600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E60" s="3">
         <v>51300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>58800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>55700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E61" s="3">
         <v>57700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>64700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>74700</v>
       </c>
       <c r="G61" s="3">
         <v>74700</v>
       </c>
       <c r="H61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="I61" s="3">
         <v>80600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>90800</v>
       </c>
       <c r="K61" s="3">
         <v>90800</v>
       </c>
       <c r="L61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="M61" s="3">
         <v>104200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>102700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>112200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>94600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>105100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E62" s="3">
         <v>45400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>51100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>51500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E66" s="3">
         <v>154400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>163600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>175600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>167700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>170900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>172000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>184400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>188700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>187500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>206200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>208600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>197400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E72" s="3">
         <v>180700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>178600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>171800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>164400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>163100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>161400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>156400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>147200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>189400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>172200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>171700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>165900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>166200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E76" s="3">
         <v>232200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>229400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>223400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>217900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>217500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>217800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>212300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>202200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>243300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>225700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>224700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>217800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>217300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
         <v>43828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,34 +4047,37 @@
         <v>5400</v>
       </c>
       <c r="I83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="J83" s="3">
         <v>5500</v>
       </c>
       <c r="K83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L83" s="3">
         <v>5600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>5200</v>
       </c>
       <c r="Q83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E89" s="3">
         <v>17900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-6600</v>
       </c>
       <c r="N91" s="3">
         <v>-6600</v>
       </c>
       <c r="O91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-6500</v>
       </c>
       <c r="N94" s="3">
         <v>-6500</v>
       </c>
       <c r="O94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="P94" s="3">
         <v>-5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E96" s="3">
         <v>-2400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G96" s="3">
         <v>-2500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I96" s="3">
         <v>-2400</v>
       </c>
       <c r="J96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-4700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-4500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-17400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E8" s="3">
         <v>132400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>120400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>140000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>147300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>133100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>128200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>145300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>127000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>118100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>125400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>133700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>118600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>112400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E9" s="3">
         <v>109800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>98900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>112000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>118500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>107100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>119600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>121300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>109200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>99200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>101300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>107700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>96700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E10" s="3">
         <v>22600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,16 +1026,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1026,11 +1046,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1038,11 +1058,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>39100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E17" s="3">
         <v>124700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>113600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>126900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>133400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>134500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>136300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>163000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>113400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>116100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>111200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>106400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,34 +1279,35 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-600</v>
       </c>
       <c r="G20" s="3">
         <v>-600</v>
       </c>
       <c r="H20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-900</v>
       </c>
       <c r="L20" s="3">
         <v>-900</v>
@@ -1282,72 +1316,78 @@
         <v>-900</v>
       </c>
       <c r="N20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-700</v>
       </c>
       <c r="R20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E21" s="3">
         <v>12200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-31200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1500</v>
       </c>
       <c r="I24" s="3">
         <v>1500</v>
       </c>
       <c r="J24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1713,11 +1774,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1725,14 +1786,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>13200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,34 +1913,37 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>600</v>
       </c>
       <c r="G32" s="3">
         <v>600</v>
       </c>
       <c r="H32" s="3">
+        <v>600</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>900</v>
       </c>
       <c r="L32" s="3">
         <v>900</v>
@@ -1882,72 +1952,78 @@
         <v>900</v>
       </c>
       <c r="N32" s="3">
+        <v>900</v>
+      </c>
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>700</v>
       </c>
       <c r="R32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E43" s="3">
         <v>67400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>56700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>65400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>61500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>67900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>62800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>58600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E44" s="3">
         <v>54400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>57500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>60800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>58700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>62700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>65900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>65600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>51200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>50300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E46" s="3">
         <v>131000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>127000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>139400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>142200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>139900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>142900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>135000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>133100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>132200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>134400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>120900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>117000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E48" s="3">
         <v>135400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>134900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>133900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>133500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>118600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>117600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>119400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>121700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>123800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>123000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>121500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>120200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E49" s="3">
         <v>119100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>120400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>121600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>122900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>124200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>125400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>126800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>129600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>170200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>171600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>173000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>174400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>175900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3800</v>
       </c>
       <c r="K52" s="3">
         <v>3800</v>
       </c>
       <c r="L52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>399500</v>
+      </c>
+      <c r="E54" s="3">
         <v>389300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>386600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>393000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>399000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>385600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>388400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>389800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>396700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>391000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>430700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>431900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>433300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>418600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>414700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E57" s="3">
         <v>34100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>29300</v>
       </c>
       <c r="I57" s="3">
         <v>29300</v>
       </c>
       <c r="J57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K57" s="3">
         <v>35500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2967,222 +3101,237 @@
         <v>9900</v>
       </c>
       <c r="N58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="O58" s="3">
         <v>9200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E59" s="3">
         <v>18200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E60" s="3">
         <v>62200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>53100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>58800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>55700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E61" s="3">
         <v>49800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>57700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>64700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>74700</v>
       </c>
       <c r="H61" s="3">
         <v>74700</v>
       </c>
       <c r="I61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="J61" s="3">
         <v>80600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>75800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>90800</v>
       </c>
       <c r="L61" s="3">
         <v>90800</v>
       </c>
       <c r="M61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="N61" s="3">
         <v>104200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>102700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>112200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>94600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>105100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E62" s="3">
         <v>43900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>51100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E66" s="3">
         <v>155800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>163600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>175600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>167700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>170900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>172000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>184400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>188700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>187500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>206200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>208600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>197400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E72" s="3">
         <v>182900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>180700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>178600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>171800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>164400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>163100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>161400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>156400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>147200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>189400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>172200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>171700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>165900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>166200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>243400</v>
+      </c>
+      <c r="E76" s="3">
         <v>233500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>232200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>229400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>223400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>217900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>217500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>217800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>212300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>202200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>243300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>225700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>224700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>217800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>217300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4224,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E83" s="3">
         <v>5400</v>
@@ -4050,34 +4249,37 @@
         <v>5400</v>
       </c>
       <c r="J83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K83" s="3">
         <v>5500</v>
       </c>
       <c r="L83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M83" s="3">
         <v>5600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>5200</v>
       </c>
       <c r="R83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>13900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-6600</v>
       </c>
       <c r="O91" s="3">
         <v>-6600</v>
       </c>
       <c r="P91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-6500</v>
       </c>
       <c r="O94" s="3">
         <v>-6500</v>
       </c>
       <c r="P94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,49 +4859,52 @@
         <v>-2500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="F96" s="3">
         <v>-2400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H96" s="3">
         <v>-2500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J96" s="3">
         <v>-2400</v>
       </c>
       <c r="K96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L96" s="3">
         <v>-4700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-4700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-4500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-17400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E8" s="3">
         <v>143200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>132400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>120400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>140000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>133100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>128200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>145300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>127000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>118100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>125400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>133700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>118600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>112400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E9" s="3">
         <v>112200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>109800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>98900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>112000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>118500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>107100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>119600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>121300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>109200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>99200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>101300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>107700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>96700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>91400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E10" s="3">
         <v>31000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,19 +1046,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1049,11 +1069,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1061,11 +1081,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>39100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E17" s="3">
         <v>127200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>124700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>113600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>126900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>133400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>121400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>134500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>136300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>163000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>113400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>116100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>123500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>111200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>106400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E18" s="3">
         <v>16000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,37 +1313,38 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-600</v>
       </c>
       <c r="H20" s="3">
         <v>-600</v>
       </c>
       <c r="I20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-900</v>
       </c>
       <c r="M20" s="3">
         <v>-900</v>
@@ -1319,75 +1353,81 @@
         <v>-900</v>
       </c>
       <c r="O20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-700</v>
       </c>
       <c r="S20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E21" s="3">
         <v>21500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-31200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1479,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E23" s="3">
         <v>16000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1500</v>
       </c>
       <c r="J24" s="3">
         <v>1500</v>
       </c>
       <c r="K24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E26" s="3">
         <v>11800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E27" s="3">
         <v>11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1777,11 +1838,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1789,14 +1850,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>13200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,37 +1983,40 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>600</v>
       </c>
       <c r="H32" s="3">
         <v>600</v>
       </c>
       <c r="I32" s="3">
+        <v>600</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>900</v>
       </c>
       <c r="M32" s="3">
         <v>900</v>
@@ -1955,75 +2025,81 @@
         <v>900</v>
       </c>
       <c r="O32" s="3">
+        <v>900</v>
+      </c>
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>700</v>
       </c>
       <c r="S32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E33" s="3">
         <v>11800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E35" s="3">
         <v>11800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,220 +2424,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E43" s="3">
         <v>69500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>56700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>65400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>69000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>64500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>61500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>67900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>66200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>62800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>58600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>53300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E44" s="3">
         <v>63400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>54400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>57500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>60800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>58700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>60500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>65900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>65600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>51200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>50300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E46" s="3">
         <v>140400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>131000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>127000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>139400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>142200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>139900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>142900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>135000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>133100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>132200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>134400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>120900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>117000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E48" s="3">
         <v>135800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>135400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>134900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>133900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>133500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>118600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>117600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>119400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>121700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>123800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>123000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>121500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>120200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E49" s="3">
         <v>117800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>119100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>120400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>121600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>122900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>124200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>125400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>126800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>129600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>170200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>171600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>173000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>174400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>175900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3800</v>
       </c>
       <c r="L52" s="3">
         <v>3800</v>
       </c>
       <c r="M52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>423100</v>
+      </c>
+      <c r="E54" s="3">
         <v>399500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>389300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>386600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>393000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>399000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>385600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>388400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>389800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>396700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>391000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>430700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>431900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>433300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>418600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>414700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3142,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E57" s="3">
         <v>31100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>29300</v>
       </c>
       <c r="J57" s="3">
         <v>29300</v>
       </c>
       <c r="K57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="L57" s="3">
         <v>35500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3104,234 +3238,249 @@
         <v>9900</v>
       </c>
       <c r="O58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="P58" s="3">
         <v>9200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E59" s="3">
         <v>15700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E60" s="3">
         <v>56700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>53100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>58800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>41900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E61" s="3">
         <v>55800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>49800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>57700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>64700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>74700</v>
       </c>
       <c r="I61" s="3">
         <v>74700</v>
       </c>
       <c r="J61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K61" s="3">
         <v>80600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75800</v>
-      </c>
-      <c r="L61" s="3">
-        <v>90800</v>
       </c>
       <c r="M61" s="3">
         <v>90800</v>
       </c>
       <c r="N61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="O61" s="3">
         <v>104200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>102700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>112200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>94600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>105100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E62" s="3">
         <v>43600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>43900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168400</v>
+      </c>
+      <c r="E66" s="3">
         <v>156000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>163600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>175600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>167700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>170900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>172000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>184400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>188700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>187500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>206200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>208600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>197400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E72" s="3">
         <v>192300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>182900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>180700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>178600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>171800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>164400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>163100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>161400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>156400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>147200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>189400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>172200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>171700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>165900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>166200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>254600</v>
+      </c>
+      <c r="E76" s="3">
         <v>243400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>233500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>232200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>229400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>223400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>217900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>217500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>217800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>212300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>202200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>243300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>225700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>224700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>217800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>217300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E81" s="3">
         <v>11800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,16 +4423,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>5500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5400</v>
       </c>
       <c r="F83" s="3">
         <v>5400</v>
@@ -4252,34 +4451,37 @@
         <v>5400</v>
       </c>
       <c r="K83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="L83" s="3">
         <v>5500</v>
       </c>
       <c r="M83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>5200</v>
       </c>
       <c r="S83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-6600</v>
       </c>
       <c r="P91" s="3">
         <v>-6600</v>
       </c>
       <c r="Q91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-6500</v>
       </c>
       <c r="P94" s="3">
         <v>-6500</v>
       </c>
       <c r="Q94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="R94" s="3">
         <v>-5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,49 +5096,52 @@
         <v>-2500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="G96" s="3">
         <v>-2400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I96" s="3">
         <v>-2500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K96" s="3">
         <v>-2400</v>
       </c>
       <c r="L96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M96" s="3">
         <v>-4700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-4700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-17400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E8" s="3">
         <v>147800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>143200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>132400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>120400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>140000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>147300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>133100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>145300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>149800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>127000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>118100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>125400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>133700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>118600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>112400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E9" s="3">
         <v>115000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>112200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>98900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>112400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>107100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>119600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>121300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>99200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>101300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>107700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>96700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>91400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E10" s="3">
         <v>32800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,11 +1079,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1072,11 +1091,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1084,11 +1103,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>39100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E17" s="3">
         <v>131200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>113600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>126900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>133400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>121400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>134500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>136300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>163000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>113400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>116100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>123500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>111200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>106400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E18" s="3">
         <v>16600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,40 +1346,41 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-600</v>
       </c>
       <c r="I20" s="3">
         <v>-600</v>
       </c>
       <c r="J20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-900</v>
       </c>
       <c r="N20" s="3">
         <v>-900</v>
@@ -1356,78 +1389,84 @@
         <v>-900</v>
       </c>
       <c r="P20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-700</v>
       </c>
       <c r="T20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E21" s="3">
         <v>22100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-31200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E23" s="3">
         <v>16600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1500</v>
       </c>
       <c r="K24" s="3">
         <v>1500</v>
       </c>
       <c r="L24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>12200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E27" s="3">
         <v>12200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-38100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1841,11 +1901,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1853,14 +1913,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>13200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,40 +2052,43 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>600</v>
       </c>
       <c r="I32" s="3">
         <v>600</v>
       </c>
       <c r="J32" s="3">
+        <v>600</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>900</v>
       </c>
       <c r="N32" s="3">
         <v>900</v>
@@ -2028,78 +2097,84 @@
         <v>900</v>
       </c>
       <c r="P32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>700</v>
       </c>
       <c r="T32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E33" s="3">
         <v>12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E35" s="3">
         <v>12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E43" s="3">
         <v>74500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>69500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>67400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>56700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>65400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>69000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>64500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>61500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>66200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>62800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>58600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>53300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E44" s="3">
         <v>63200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>63400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>54400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>58700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>60500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>67800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>66400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>65900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>65600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>51200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>50300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>155500</v>
+      </c>
+      <c r="E46" s="3">
         <v>142600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>140400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>131000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>127000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>138100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>139400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>142200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>139900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>142900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>135000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>133100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>132200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>134400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>120900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>117000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E48" s="3">
         <v>136000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>135800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>135400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>134900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>133900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>133500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>118600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>117600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>119400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>121700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>123800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>125900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>123000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>121500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>120200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E49" s="3">
         <v>138900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>117800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>119100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>120400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>121600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>122900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>124200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>125400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>126800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>129600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>170200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>171600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>173000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>174400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>175900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3800</v>
       </c>
       <c r="M52" s="3">
         <v>3800</v>
       </c>
       <c r="N52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E54" s="3">
         <v>423100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>399500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>389300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>386600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>393000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>399000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>385600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>388400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>389800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>396700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>391000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>430700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>431900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>433300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>418600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>414700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E57" s="3">
         <v>32700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>29300</v>
       </c>
       <c r="K57" s="3">
         <v>29300</v>
       </c>
       <c r="L57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="M57" s="3">
         <v>35500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3241,246 +3374,261 @@
         <v>9900</v>
       </c>
       <c r="P58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>9200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E60" s="3">
         <v>58800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>58800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>60600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>52500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>41900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E61" s="3">
         <v>65800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>55800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>49800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>57700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>64700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>74700</v>
       </c>
       <c r="J61" s="3">
         <v>74700</v>
       </c>
       <c r="K61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="L61" s="3">
         <v>80600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75800</v>
-      </c>
-      <c r="M61" s="3">
-        <v>90800</v>
       </c>
       <c r="N61" s="3">
         <v>90800</v>
       </c>
       <c r="O61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="P61" s="3">
         <v>104200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>102700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>112200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>94600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>105100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E62" s="3">
         <v>43900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>43600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>43900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>51500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>189100</v>
+      </c>
+      <c r="E66" s="3">
         <v>168400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>156000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>163600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>175600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>167700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>170900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>172000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>184400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>188700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>187500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>206200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>208600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>197400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E72" s="3">
         <v>202000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>192300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>182900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>180700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>178600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>171800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>164400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>163100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>161400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>156400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>147200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>189400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>172200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>171700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>165900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>166200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>256900</v>
+      </c>
+      <c r="E76" s="3">
         <v>254600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>243400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>233500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>232200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>229400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>223400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>217900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>217500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>217800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>212300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>202200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>243300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>225700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>224700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>217800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>217300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E81" s="3">
         <v>12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,19 +4621,20 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5400</v>
       </c>
       <c r="G83" s="3">
         <v>5400</v>
@@ -4454,34 +4652,37 @@
         <v>5400</v>
       </c>
       <c r="L83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="M83" s="3">
         <v>5500</v>
       </c>
       <c r="N83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O83" s="3">
         <v>5600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5400</v>
-      </c>
-      <c r="S83" s="3">
-        <v>5200</v>
       </c>
       <c r="T83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>18600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-6600</v>
       </c>
       <c r="Q91" s="3">
         <v>-6600</v>
       </c>
       <c r="R91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="S91" s="3">
         <v>-5800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-6500</v>
       </c>
       <c r="Q94" s="3">
         <v>-6500</v>
       </c>
       <c r="R94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="S94" s="3">
         <v>-5700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5099,49 +5332,52 @@
         <v>-2500</v>
       </c>
       <c r="G96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H96" s="3">
         <v>-2400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="J96" s="3">
         <v>-2500</v>
       </c>
       <c r="K96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="L96" s="3">
         <v>-2400</v>
       </c>
       <c r="M96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N96" s="3">
         <v>-4700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-4700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E100" s="3">
         <v>8300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-17400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,296 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44283</v>
+      </c>
+      <c r="F7" s="2">
         <v>44192</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43464</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42736</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>163000</v>
+      </c>
+      <c r="F8" s="3">
         <v>142900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>147800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>143200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>132400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>120400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>140000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>147300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>133100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>128200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>145300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>149800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>127000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>118100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>125400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>133700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>118600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>112400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>131200</v>
+      </c>
+      <c r="F9" s="3">
         <v>114700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>115000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>112200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>109800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>98900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>112000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>118500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>112400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>107100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>119600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>121300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>109200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>99200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>101300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>107700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>96700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>91400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F10" s="3">
         <v>28200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>32800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>31000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>22600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>21500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>28000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>28800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>20700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>21100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>25700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>28500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>17800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>18900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>24100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>26000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>21900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>21000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,52 +1102,58 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>39100</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>39100</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150100</v>
+      </c>
+      <c r="F17" s="3">
         <v>132400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>131200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>127200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>124700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>113600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>126900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>133400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>127300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>121400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>134500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>136300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>163000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>113400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>116100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>123500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>111200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>106400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F18" s="3">
         <v>10500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>16600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>16000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>13100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-36000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>9300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>10200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>7400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>6000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,149 +1413,163 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-900</v>
       </c>
       <c r="P20" s="3">
         <v>-900</v>
       </c>
       <c r="Q20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-600</v>
       </c>
       <c r="T20" s="3">
         <v>-700</v>
       </c>
       <c r="U20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16300</v>
+        <v>28300</v>
       </c>
       <c r="E21" s="3">
-        <v>22100</v>
+        <v>19000</v>
       </c>
       <c r="F21" s="3">
-        <v>21500</v>
+        <v>16600</v>
       </c>
       <c r="G21" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>21900</v>
+      </c>
+      <c r="I21" s="3">
         <v>12200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>11800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>17900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>18700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>15600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>18000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-31200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>9300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>14000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>15300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>12200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>10500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1524,126 +1604,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F23" s="3">
         <v>10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>16600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>16000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>10100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>12500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-36900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>8500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>9500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>6800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>5400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F26" s="3">
         <v>7900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>12200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>11800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>9100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-38100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F27" s="3">
         <v>7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>11800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>9300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-38100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,55 +1994,61 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>13200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2189,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>900</v>
       </c>
       <c r="P32" s="3">
         <v>900</v>
       </c>
       <c r="Q32" s="3">
+        <v>900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>900</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>600</v>
       </c>
       <c r="T32" s="3">
         <v>700</v>
       </c>
       <c r="U32" s="3">
+        <v>600</v>
+      </c>
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F33" s="3">
         <v>7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>11800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>9300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-37400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>17100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F35" s="3">
         <v>7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>11800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>9300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-37400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>17100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44283</v>
+      </c>
+      <c r="F38" s="2">
         <v>44192</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43464</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42736</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2573,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>8400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2699,274 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>90800</v>
+      </c>
+      <c r="F43" s="3">
         <v>77800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>74500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>69500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>67400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>56700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>65400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>69000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>64500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>61500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>66400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>67900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>66200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>57900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>60000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>62800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>58600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>53300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>63900</v>
+      </c>
+      <c r="F44" s="3">
         <v>64700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>63200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>63400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>54400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>57500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>60800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>58700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>60500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>67700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>67800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>66400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>59700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>62700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>65900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>65600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>51200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>50300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>5100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>163000</v>
+      </c>
+      <c r="F46" s="3">
         <v>155500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>142600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>140400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>131000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>127000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>133100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>138100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>139400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>142200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>139900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>142900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>135000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>133100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>132200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>134400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>120900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>117000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +3024,144 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>153700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>156200</v>
+      </c>
+      <c r="F48" s="3">
         <v>147100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>136000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>135800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>135400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>134900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>133900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>133500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>118600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>117600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>119400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>121700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>123800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>125100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>125900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>123000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>121500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>120200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>147100</v>
+      </c>
+      <c r="F49" s="3">
         <v>137400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>138900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>117800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>119100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>120400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>121600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>122900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>124200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>125400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>126800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>128200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>129600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>170200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>171600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>173000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>174400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>175900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3284,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>472600</v>
+      </c>
+      <c r="F54" s="3">
         <v>446000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>423100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>399500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>389300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>386600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>393000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>399000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>385600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>388400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>389800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>396700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>391000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>430700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>431900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>433300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>418600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>414700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3533,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F57" s="3">
         <v>31200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>32700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>31100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>34100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>26700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>29600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>32000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>29300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>29300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>35500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>36700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>33400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>28100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>26800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>27900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>29800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>21900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3377,258 +3645,288 @@
         <v>9900</v>
       </c>
       <c r="Q58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="R58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="S58" s="3">
         <v>9200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>8600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>8000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>7400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F59" s="3">
         <v>18000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>16100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>15700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>14600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>14300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>16200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>13900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>10000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>16400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>8500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>17900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>12700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>70500</v>
+      </c>
+      <c r="F60" s="3">
         <v>59000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>58800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>56700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>62200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>51300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>53900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>55700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>55400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>53100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>58800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>56500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>60600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>48500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>52500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>45000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>55700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>41900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>88800</v>
+      </c>
+      <c r="F61" s="3">
         <v>85800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>65800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>55800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>49800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>57700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>64700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>74700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>74700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>80600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>75800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>90800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>90800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>104200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>102700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>112200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>94600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>105100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F62" s="3">
         <v>44200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>43900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>43600</v>
       </c>
       <c r="G62" s="3">
         <v>43900</v>
       </c>
       <c r="H62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>43900</v>
+      </c>
+      <c r="J62" s="3">
         <v>45400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>45000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>45200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>37700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>37200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>37400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>37100</v>
       </c>
       <c r="O62" s="3">
         <v>37400</v>
       </c>
       <c r="P62" s="3">
+        <v>37100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>37400</v>
+      </c>
+      <c r="R62" s="3">
         <v>34700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>51100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>51500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>50500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>50400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>199800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>207300</v>
+      </c>
+      <c r="F66" s="3">
         <v>189100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>168400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>156000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>155800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>154400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>163600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>175600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>167700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>170900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>172000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>184400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>188700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>187500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>206200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>208600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>200800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>197400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>213900</v>
+      </c>
+      <c r="F72" s="3">
         <v>207400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>202000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>192300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>182900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>180700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>178600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>171800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>164400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>163100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>161400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>156400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>147200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>189400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>172200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>171700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>165900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>166200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>265200</v>
+      </c>
+      <c r="F76" s="3">
         <v>256900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>254600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>243400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>233500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>232200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>229400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>223400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>217900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>217500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>217800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>212300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>202200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>243300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>225700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>224700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>217800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>217300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44283</v>
+      </c>
+      <c r="F80" s="2">
         <v>44192</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43464</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42736</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F81" s="3">
         <v>7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>11800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>9300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-37400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>17100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,25 +5018,27 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>5600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5400</v>
       </c>
       <c r="I83" s="3">
         <v>5400</v>
@@ -4655,34 +5053,40 @@
         <v>5400</v>
       </c>
       <c r="M83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O83" s="3">
         <v>5500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>5500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>5500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>5800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>5400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>5200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>18600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>13900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>17000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>10100</v>
       </c>
       <c r="K89" s="3">
         <v>17000</v>
       </c>
       <c r="L89" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N89" s="3">
         <v>6200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>18000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>12800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>10100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>16400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-11900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5498,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-5600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5689,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-28200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,16 +5783,18 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F96" s="3">
         <v>-2500</v>
@@ -5335,28 +5803,28 @@
         <v>-2500</v>
       </c>
       <c r="H96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-2400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-4700</v>
@@ -5365,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6039,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>13400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>8300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-11800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-9400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-13800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-9800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-17400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-12800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>14400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-9600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-5700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F102" s="3">
         <v>4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-8300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E7" s="2">
         <v>44374</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44283</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44192</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42736</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>183300</v>
+      </c>
+      <c r="E8" s="3">
         <v>181200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>163000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>142900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>147800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>143200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>132400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>120400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>140000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>147300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>133100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>128200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>145300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>149800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>127000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>118100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>125400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>133700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>118600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>112400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E9" s="3">
         <v>142300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>131200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>114700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>98900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>112400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>107100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>119600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>121300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>99200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>101300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>107700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>96700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>91400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E10" s="3">
         <v>38900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,17 +1154,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1152,11 +1172,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>39100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E17" s="3">
         <v>159100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>131200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>124700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>113600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>133400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>121400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>134500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>136300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>163000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>113400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>116100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>123500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>111200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>106400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E18" s="3">
         <v>22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-36000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,49 +1448,50 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-600</v>
       </c>
       <c r="L20" s="3">
         <v>-600</v>
       </c>
       <c r="M20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-900</v>
       </c>
       <c r="Q20" s="3">
         <v>-900</v>
@@ -1466,87 +1500,93 @@
         <v>-900</v>
       </c>
       <c r="S20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-700</v>
       </c>
       <c r="W20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E21" s="3">
         <v>28300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-31200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,25 +1594,25 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1610,138 +1650,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E23" s="3">
         <v>22000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-36900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1500</v>
       </c>
       <c r="N24" s="3">
         <v>1500</v>
       </c>
       <c r="O24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E26" s="3">
         <v>16600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-38100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E27" s="3">
         <v>16600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-38100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2026,17 +2087,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2044,14 +2105,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>13200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,49 +2262,52 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>600</v>
       </c>
       <c r="L32" s="3">
         <v>600</v>
       </c>
       <c r="M32" s="3">
+        <v>600</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>900</v>
       </c>
       <c r="Q32" s="3">
         <v>900</v>
@@ -2246,87 +2316,93 @@
         <v>900</v>
       </c>
       <c r="S32" s="3">
+        <v>900</v>
+      </c>
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
-      </c>
-      <c r="V32" s="3">
-        <v>700</v>
       </c>
       <c r="W32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E33" s="3">
         <v>16600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-37400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E35" s="3">
         <v>16600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-37400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E38" s="2">
         <v>44374</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44283</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44192</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42736</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,268 +2795,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E43" s="3">
         <v>90900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>90800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>77800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>74500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>69500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>67400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>56700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>64500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>61500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>66400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>66200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>60000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>62800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>58600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>53300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E44" s="3">
         <v>67900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>63900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>64700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>63200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>63400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>54400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>57500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>60500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>67700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>67800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>66400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>59700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>65900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>65600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>51200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>50300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E46" s="3">
         <v>167800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>155500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>142600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>140400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>127000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>133100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>138100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>139400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>142200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>139900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>142900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>135000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>133100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>132200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>134400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>120900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>117000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,138 +3135,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E48" s="3">
         <v>153700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>156200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>147100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>136000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>135800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>134900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>133900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>133500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>118600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>117600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>119400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>121700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>123800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>125100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>125900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>123000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>121500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>120200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E49" s="3">
         <v>145500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>147100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>137400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>138900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>117800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>119100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>120400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>121600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>124200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>125400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>126800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>129600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>170200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>171600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>173000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>174400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>175900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E52" s="3">
         <v>8000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3800</v>
       </c>
       <c r="P52" s="3">
         <v>3800</v>
       </c>
       <c r="Q52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>477800</v>
+      </c>
+      <c r="E54" s="3">
         <v>475000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>472600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>446000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>423100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>399500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>389300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>386600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>393000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>399000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>385600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>388400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>389800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>396700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>391000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>430700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>431900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>433300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>418600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>414700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3665,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E57" s="3">
         <v>38100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>29300</v>
       </c>
       <c r="N57" s="3">
         <v>29300</v>
       </c>
       <c r="O57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="P57" s="3">
         <v>35500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>29800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3651,22 +3785,25 @@
         <v>9900</v>
       </c>
       <c r="S58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="T58" s="3">
         <v>9200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3674,259 +3811,271 @@
         <v>18600</v>
       </c>
       <c r="E59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F59" s="3">
         <v>23200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E60" s="3">
         <v>66500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>58800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>53100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>58800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>45000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>55700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>41900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E61" s="3">
         <v>85900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>88800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>85800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>65800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>55800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>49800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>57700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>64700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>74700</v>
       </c>
       <c r="M61" s="3">
         <v>74700</v>
       </c>
       <c r="N61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="O61" s="3">
         <v>80600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>75800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>90800</v>
       </c>
       <c r="Q61" s="3">
         <v>90800</v>
       </c>
       <c r="R61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="S61" s="3">
         <v>104200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>102700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>112200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>94600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>105100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E62" s="3">
         <v>47400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>48000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>43900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>43600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>43900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>51100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>51500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>50500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>50400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E66" s="3">
         <v>199800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>207300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>189100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>168400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>156000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>163600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>175600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>167700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>170900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>172000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>184400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>188700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>187500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>206200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>208600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>200800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>197400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>239300</v>
+      </c>
+      <c r="E72" s="3">
         <v>227900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>213900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>207400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>202000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>192300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>182900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>180700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>178600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>171800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>164400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>163100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>161400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>156400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>147200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>189400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>172200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>171700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>165900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>166200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>284300</v>
+      </c>
+      <c r="E76" s="3">
         <v>275200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>265200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>256900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>254600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>243400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>233500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>232200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>229400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>223400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>217900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>217500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>217800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>212300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>202200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>243300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>225700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>224700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>217800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>217300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E80" s="2">
         <v>44374</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44283</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44192</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42736</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E81" s="3">
         <v>16600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-37400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,28 +5218,29 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E83" s="3">
         <v>5900</v>
       </c>
       <c r="F83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G83" s="3">
         <v>5700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5400</v>
       </c>
       <c r="J83" s="3">
         <v>5400</v>
@@ -5059,34 +5258,37 @@
         <v>5400</v>
       </c>
       <c r="O83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="P83" s="3">
         <v>5500</v>
       </c>
       <c r="Q83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>5200</v>
       </c>
       <c r="W83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E89" s="3">
         <v>14800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-11900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-6600</v>
       </c>
       <c r="T91" s="3">
         <v>-6600</v>
       </c>
       <c r="U91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="V91" s="3">
         <v>-5800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-6500</v>
       </c>
       <c r="T94" s="3">
         <v>-6500</v>
       </c>
       <c r="U94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="V94" s="3">
         <v>-5700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,19 +6018,20 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="E96" s="3">
         <v>-2600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="G96" s="3">
         <v>-2500</v>
@@ -5809,49 +6043,52 @@
         <v>-2500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K96" s="3">
         <v>-2400</v>
       </c>
       <c r="L96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="M96" s="3">
         <v>-2500</v>
       </c>
       <c r="N96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="O96" s="3">
         <v>-2400</v>
       </c>
       <c r="P96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-17400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E7" s="2">
         <v>44465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44374</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44283</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44192</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42736</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E8" s="3">
         <v>183300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>181200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>163000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>142900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>143200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>132400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>120400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>140000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>147300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>133100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>128200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>145300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>149800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>127000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>118100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>125400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>133700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>118600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>112400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E9" s="3">
         <v>146000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>142300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>131200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>114700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>115000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>118500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>112400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>107100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>119600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>121300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>109200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>99200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>101300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>107700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>96700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>91400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E10" s="3">
         <v>37300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>21000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,17 +1176,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1175,11 +1194,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>39100</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1196,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E17" s="3">
         <v>163700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>159100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>150100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>131200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>124700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>113600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>126900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>133400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>121400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>134500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>136300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>163000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>113400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>116100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>123500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>111200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>106400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E18" s="3">
         <v>19600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-36000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,52 +1481,53 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-600</v>
       </c>
       <c r="M20" s="3">
         <v>-600</v>
       </c>
       <c r="N20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-900</v>
       </c>
       <c r="R20" s="3">
         <v>-900</v>
@@ -1503,90 +1536,96 @@
         <v>-900</v>
       </c>
       <c r="T20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-700</v>
       </c>
       <c r="X20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E21" s="3">
         <v>25700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-31200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>15300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,25 +1636,25 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1653,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E23" s="3">
         <v>19500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-36900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>5300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1500</v>
       </c>
       <c r="O24" s="3">
         <v>1500</v>
       </c>
       <c r="P24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E26" s="3">
         <v>14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-38100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E27" s="3">
         <v>14100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-38100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2090,17 +2150,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2108,14 +2168,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>13200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,52 +2331,55 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>600</v>
       </c>
       <c r="M32" s="3">
         <v>600</v>
       </c>
       <c r="N32" s="3">
+        <v>600</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>900</v>
       </c>
       <c r="R32" s="3">
         <v>900</v>
@@ -2319,90 +2388,96 @@
         <v>900</v>
       </c>
       <c r="T32" s="3">
+        <v>900</v>
+      </c>
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>700</v>
       </c>
       <c r="X32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E33" s="3">
         <v>14100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-37400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E35" s="3">
         <v>14100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-37400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E38" s="2">
         <v>44465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44374</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44283</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44192</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42736</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,280 +2887,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E43" s="3">
         <v>90100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>90900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>90800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>77800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>69500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>67400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>69000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>64500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>61500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>66200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>60000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>62800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>58600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>53300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E44" s="3">
         <v>70300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>67900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>63900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>64700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>63200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>63400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>54400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>57500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>58700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>60500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>67700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>67800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>66400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>62700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>65900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>65600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>51200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>50300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E46" s="3">
         <v>169700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>167800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>163000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>155500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>142600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>140400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>127000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>133100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>138100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>139400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>142200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>139900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>142900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>135000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>133100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>132200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>134400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>120900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>117000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,144 +3242,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E48" s="3">
         <v>154200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>153700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>156200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>147100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>136000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>135400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>134900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>133900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>133500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>118600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>117600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>119400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>121700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>123800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>125100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>125900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>123000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>121500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>120200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E49" s="3">
         <v>146100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>145500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>147100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>137400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>138900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>117800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>119100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>120400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>121600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>122900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>124200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>125400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>126800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>129600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>170200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>171600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>173000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>174400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>175900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3800</v>
       </c>
       <c r="Q52" s="3">
         <v>3800</v>
       </c>
       <c r="R52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>521100</v>
+      </c>
+      <c r="E54" s="3">
         <v>477800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>475000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>472600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>446000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>423100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>399500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>389300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>386600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>393000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>399000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>385600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>388400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>389800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>396700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>391000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>430700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>431900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>433300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>418600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>414700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E57" s="3">
         <v>43000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>29300</v>
       </c>
       <c r="O57" s="3">
         <v>29300</v>
       </c>
       <c r="P57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>35500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>29800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>21900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3788,294 +3921,309 @@
         <v>9900</v>
       </c>
       <c r="T58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="U58" s="3">
         <v>9200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18600</v>
+        <v>21600</v>
       </c>
       <c r="E59" s="3">
         <v>18600</v>
       </c>
       <c r="F59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="G59" s="3">
         <v>23200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E60" s="3">
         <v>71500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>58800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>53900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>58800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>60600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>52500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>45000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>55700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>41900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>105900</v>
+      </c>
+      <c r="E61" s="3">
         <v>73900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>85900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>88800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>85800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>65800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>55800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>49800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>57700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>64700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>74700</v>
       </c>
       <c r="N61" s="3">
         <v>74700</v>
       </c>
       <c r="O61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="P61" s="3">
         <v>80600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>75800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>90800</v>
       </c>
       <c r="R61" s="3">
         <v>90800</v>
       </c>
       <c r="S61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="T61" s="3">
         <v>104200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>102700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>112200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>94600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>105100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E62" s="3">
         <v>48100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>48000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>44200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>43900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>43600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>43900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>51100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>51500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>50500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>50400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>229500</v>
+      </c>
+      <c r="E66" s="3">
         <v>193500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>199800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>207300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>189100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>168400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>156000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>155800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>163600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>175600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>167700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>170900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>172000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>184400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>188700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>187500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>206200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>208600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>200800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>197400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E72" s="3">
         <v>239300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>227900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>213900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>207400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>202000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>192300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>182900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>180700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>178600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>171800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>164400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>163100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>161400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>156400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>147200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>189400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>172200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>171700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>165900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>166200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E76" s="3">
         <v>284300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>275200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>265200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>256900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>254600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>243400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>233500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>232200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>229400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>223400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>217900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>217500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>217800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>212300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>202200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>243300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>225700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>224700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>217800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>217300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E80" s="2">
         <v>44465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44374</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44283</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44192</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42736</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E81" s="3">
         <v>14100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-37400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5228,22 +5426,22 @@
         <v>6000</v>
       </c>
       <c r="E83" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F83" s="3">
         <v>5900</v>
       </c>
       <c r="G83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H83" s="3">
         <v>5700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>5400</v>
       </c>
       <c r="K83" s="3">
         <v>5400</v>
@@ -5261,34 +5459,37 @@
         <v>5400</v>
       </c>
       <c r="P83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="Q83" s="3">
         <v>5500</v>
       </c>
       <c r="R83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="S83" s="3">
         <v>5600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5400</v>
-      </c>
-      <c r="W83" s="3">
-        <v>5200</v>
       </c>
       <c r="X83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>25300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-11900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-6600</v>
       </c>
       <c r="U91" s="3">
         <v>-6600</v>
       </c>
       <c r="V91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="W91" s="3">
         <v>-5800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-6500</v>
       </c>
       <c r="U94" s="3">
         <v>-6500</v>
       </c>
       <c r="V94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="W94" s="3">
         <v>-5700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,22 +6251,23 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-2600</v>
       </c>
       <c r="F96" s="3">
         <v>-2600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H96" s="3">
         <v>-2500</v>
@@ -6046,49 +6279,52 @@
         <v>-2500</v>
       </c>
       <c r="K96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="L96" s="3">
         <v>-2400</v>
       </c>
       <c r="M96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="N96" s="3">
         <v>-2500</v>
       </c>
       <c r="O96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="P96" s="3">
         <v>-2400</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>14400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-8300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,347 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F7" s="2">
         <v>44556</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44374</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44283</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44192</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42736</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F8" s="3">
         <v>187100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>183300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>181200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>163000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>142900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>147800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>143200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>132400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>120400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>140000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>147300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>133100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>128200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>145300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>149800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>127000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>118100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>125400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>133700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>118600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>112400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>199800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>186700</v>
+      </c>
+      <c r="F9" s="3">
         <v>153100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>146000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>142300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>131200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>114700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>115000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>112200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>109800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>98900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>112000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>118500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>112400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>107100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>119600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>121300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>109200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>99200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>101300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>107700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>96700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>91400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F10" s="3">
         <v>34000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>37300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>38900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>31800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>28200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>32800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>31000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>22600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>21500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>28000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>28800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>20700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>21100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>25700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>28500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>17800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>18900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>24100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>26000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>21900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>21000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1181,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,32 +1219,32 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>39100</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>39100</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1258,14 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1365,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>207800</v>
+      </c>
+      <c r="F17" s="3">
         <v>172800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>163700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>159100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>150100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>132400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>131200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>127200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>124700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>113600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>126900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>133400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>127300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>121400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>134500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>136300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>163000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>113400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>116100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>123500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>111200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>106400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F18" s="3">
         <v>14300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>19600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>22100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>12900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>16600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>10800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>13500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-36000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>9300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>10200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>7400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>6000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,186 +1548,200 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-900</v>
       </c>
       <c r="T20" s="3">
         <v>-900</v>
       </c>
       <c r="U20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W20" s="3">
         <v>-800</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-600</v>
       </c>
       <c r="X20" s="3">
         <v>-700</v>
       </c>
       <c r="Y20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F21" s="3">
         <v>20400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>25700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>28300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>19000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>16600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>22500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>21900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>12200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>17900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>18700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>10700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>11000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>15600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>18000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-31200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>9300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>14000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>15300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>12200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>10500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1695,150 +1775,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F23" s="3">
         <v>14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>19500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>22000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>10600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>16600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>10100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>12500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-36900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>8500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>9500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>6800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>5400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G24" s="3">
         <v>5300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>2600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F26" s="3">
         <v>10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>14100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>12200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>9100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-38100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>5800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>3600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F27" s="3">
         <v>10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>14100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>12200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-38100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>5800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>3600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,35 +2275,35 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>13200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2468,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>900</v>
       </c>
       <c r="T32" s="3">
         <v>900</v>
       </c>
       <c r="U32" s="3">
+        <v>900</v>
+      </c>
+      <c r="V32" s="3">
+        <v>900</v>
+      </c>
+      <c r="W32" s="3">
         <v>800</v>
-      </c>
-      <c r="V32" s="3">
-        <v>700</v>
-      </c>
-      <c r="W32" s="3">
-        <v>600</v>
       </c>
       <c r="X32" s="3">
         <v>700</v>
       </c>
       <c r="Y32" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F33" s="3">
         <v>10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>14100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>16600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>12200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-37400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>17100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>5800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>3600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2699,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F35" s="3">
         <v>10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>14100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>16600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>12200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-37400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>17100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>5800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>3600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F38" s="2">
         <v>44556</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44374</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44283</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44192</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42736</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F41" s="3">
         <v>23400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>8400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +3070,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>122800</v>
+      </c>
+      <c r="F43" s="3">
         <v>102800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>90100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>90900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>90800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>77800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>74500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>69500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>67400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>56700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>65400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>69000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>64500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>61500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>66400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>67900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>66200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>57900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>60000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>62800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>58600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>53300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F44" s="3">
         <v>76200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>70300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>67900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>63900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>64700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>63200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>63400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>54400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>57500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>60800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>58700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>60500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>67700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>67800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>66400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>59700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>62700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>65900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>65600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>51200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>50300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>4800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>3300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>4200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>5100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>253600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>227700</v>
+      </c>
+      <c r="F46" s="3">
         <v>209500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>169700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>167800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>163000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>155500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>142600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>140400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>131000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>127000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>133100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>138100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>139400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>142200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>139900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>142900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>135000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>133100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>132200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>134400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>120900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>117000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3455,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>176400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>172500</v>
+      </c>
+      <c r="F48" s="3">
         <v>158400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>154200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>153700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>156200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>147100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>136000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>135800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>135400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>134900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>133900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>133500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>118600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>117600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>119400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>121700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>123800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>125100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>125900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>123000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>121500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>120200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>145500</v>
+        <v>155800</v>
       </c>
       <c r="E49" s="3">
-        <v>146100</v>
+        <v>157600</v>
       </c>
       <c r="F49" s="3">
         <v>145500</v>
       </c>
       <c r="G49" s="3">
+        <v>146100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>145500</v>
+      </c>
+      <c r="I49" s="3">
         <v>147100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>137400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>138900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>117800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>119100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>120400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>121600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>122900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>124200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>125400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>126800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>128200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>129600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>170200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>171600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>173000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>174400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>175900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3763,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>3000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3917,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>596400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>567300</v>
+      </c>
+      <c r="F54" s="3">
         <v>521100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>477800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>475000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>472600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>446000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>423100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>399500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>389300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>386600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>393000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>399000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>385600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>388400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>389800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>396700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>391000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>430700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>431900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>433300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>418600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>414700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +4056,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>66700</v>
+      </c>
+      <c r="F57" s="3">
         <v>44000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>43000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>38100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>37300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>31200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>32700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>31100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>34100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>26700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>29600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>32000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>29300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>29300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>35500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>36700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>33400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>28100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>26800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>27900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>29800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>21900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3924,306 +4192,336 @@
         <v>9900</v>
       </c>
       <c r="U58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="V58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="W58" s="3">
         <v>9200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>8600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>8000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>7400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F59" s="3">
         <v>21600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>23200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>18000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>16100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>13800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>16200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>17300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>10600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>16400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>8500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>17900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>12700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>101500</v>
+      </c>
+      <c r="F60" s="3">
         <v>75500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>71500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>66500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>70500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>59000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>58800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>56700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>62200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>51300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>53900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>55700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>55400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>53100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>58800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>56500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>60600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>48500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>52500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>45000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>55700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>41900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F61" s="3">
         <v>105900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>73900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>85900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>88800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>85800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>65800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>55800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>49800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>57700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>64700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>74700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>74700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>80600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>75800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>90800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>90800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>104200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>102700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>112200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>94600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>105100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>47600</v>
+      </c>
+      <c r="F62" s="3">
         <v>48000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>48100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>47400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>48000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>44200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>43900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>43600</v>
       </c>
       <c r="K62" s="3">
         <v>43900</v>
       </c>
       <c r="L62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>43900</v>
+      </c>
+      <c r="N62" s="3">
         <v>45400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>45000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>45200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>37700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>37200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>37400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>37100</v>
       </c>
       <c r="S62" s="3">
         <v>37400</v>
       </c>
       <c r="T62" s="3">
+        <v>37100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>37400</v>
+      </c>
+      <c r="V62" s="3">
         <v>34700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>51100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>51500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>50500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>50400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>283100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>264700</v>
+      </c>
+      <c r="F66" s="3">
         <v>229500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>193500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>199800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>207300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>189100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>168400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>156000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>155800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>154400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>163600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>175600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>167700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>170900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>172000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>184400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>188700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>187500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>206200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>208600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>200800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>197400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>254400</v>
+      </c>
+      <c r="F72" s="3">
         <v>246800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>239300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>227900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>213900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>207400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>202000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>192300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>182900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>180700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>178600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>171800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>164400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>163100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>161400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>156400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>147200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>189400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>172200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>171700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>165900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>166200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>313300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>302600</v>
+      </c>
+      <c r="F76" s="3">
         <v>291700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>284300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>275200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>265200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>256900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>254600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>243400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>233500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>232200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>229400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>223400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>217900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>217500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>217800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>212300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>202200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>243300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>225700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>224700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>217800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>217300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5621,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F80" s="2">
         <v>44556</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44374</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44283</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44192</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42736</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F81" s="3">
         <v>10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>14100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>16600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>12200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-37400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>17100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>5800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>3600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,37 +5813,39 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>5700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>5400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>5400</v>
       </c>
       <c r="M83" s="3">
         <v>5400</v>
@@ -5462,34 +5860,40 @@
         <v>5400</v>
       </c>
       <c r="Q83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S83" s="3">
         <v>5500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>5500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>5600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>5400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>5500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>5800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>5400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>5200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>25300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>17200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>18600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>17900</v>
-      </c>
-      <c r="M89" s="3">
-        <v>17000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>10100</v>
       </c>
       <c r="O89" s="3">
         <v>17000</v>
       </c>
       <c r="P89" s="3">
+        <v>10100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>17000</v>
+      </c>
+      <c r="R89" s="3">
         <v>6200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>18000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>12800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>10100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>16400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-11900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>13900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6381,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-6600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-6600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-5800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6608,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-10100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-23400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-6500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-5700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,28 +6718,30 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-2800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-2600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2500</v>
       </c>
       <c r="J96" s="3">
         <v>-2500</v>
@@ -6282,28 +6750,28 @@
         <v>-2500</v>
       </c>
       <c r="L96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-2400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-2500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-2500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-4700</v>
@@ -6312,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7022,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F100" s="3">
         <v>28100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-17900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-10500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>13400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>8300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-13800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-9800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-17400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-4300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-12800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-8900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>14400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-9600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7176,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F102" s="3">
         <v>16600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-4100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44556</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44374</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44283</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44192</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42736</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>241200</v>
+      </c>
+      <c r="E8" s="3">
         <v>246500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>223000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>187100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>183300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>181200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>163000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>142900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>147800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>143200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>132400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>120400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>140000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>147300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>133100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>128200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>145300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>149800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>127000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>118100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>125400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>133700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>118600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>112400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E9" s="3">
         <v>199800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>186700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>153100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>146000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>114700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>109800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>118500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>112400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>107100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>119600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>121300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>109200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>99200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>101300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>107700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>96700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>91400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E10" s="3">
         <v>46700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>28500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>21900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1225,17 +1245,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1243,11 +1263,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>39100</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E17" s="3">
         <v>218700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>207800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>172800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>163700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>159100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>150100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>131200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>124700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>113600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>126900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>133400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>127300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>121400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>134500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>136300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>163000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>113400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>116100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>123500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>111200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>106400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E18" s="3">
         <v>27800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-36000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,61 +1583,62 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-600</v>
       </c>
       <c r="P20" s="3">
         <v>-600</v>
       </c>
       <c r="Q20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-900</v>
       </c>
       <c r="U20" s="3">
         <v>-900</v>
@@ -1613,110 +1647,116 @@
         <v>-900</v>
       </c>
       <c r="W20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-700</v>
       </c>
       <c r="AA20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E21" s="3">
         <v>33700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-31200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>14000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1725,25 +1765,25 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1781,162 +1821,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E23" s="3">
         <v>26200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-36900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>6500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3900</v>
       </c>
       <c r="F24" s="3">
         <v>3900</v>
       </c>
       <c r="G24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H24" s="3">
         <v>5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1500</v>
       </c>
       <c r="R24" s="3">
         <v>1500</v>
       </c>
       <c r="S24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E26" s="3">
         <v>19700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-38100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E27" s="3">
         <v>19700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-38100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2281,17 +2342,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2299,14 +2360,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>13200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,61 +2541,64 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>600</v>
       </c>
       <c r="P32" s="3">
         <v>600</v>
       </c>
       <c r="Q32" s="3">
+        <v>600</v>
+      </c>
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>900</v>
       </c>
       <c r="U32" s="3">
         <v>900</v>
@@ -2537,99 +2607,105 @@
         <v>900</v>
       </c>
       <c r="W32" s="3">
+        <v>900</v>
+      </c>
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>600</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>700</v>
       </c>
       <c r="AA32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E33" s="3">
         <v>19700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-37400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="3">
         <v>19700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-37400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44556</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44374</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44283</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44192</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42736</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E41" s="3">
         <v>6000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,316 +3166,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E43" s="3">
         <v>138800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>122800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>102800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>90100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>90900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>90800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>77800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>56700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>65400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>69000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>64500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>61500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>66400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>67900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>66200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>57900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>60000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>62800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>58600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>53300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E44" s="3">
         <v>105000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>95000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>76200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>70300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>67900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>63900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>64700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>63200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>63400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>54400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>57500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>60800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>58700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>60500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>67700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>67800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>66400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>59700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>62700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>65900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>65600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>51200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>50300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>251600</v>
+      </c>
+      <c r="E46" s="3">
         <v>253600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>227700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>209500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>169700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>167800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>163000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>155500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>142600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>140400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>127000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>133100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>138100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>139400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>142200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>139900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>142900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>135000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>133100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>132200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>134400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>120900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>117000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,162 +3566,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E48" s="3">
         <v>176400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>172500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>158400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>154200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>153700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>156200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>147100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>136000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>135800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>135400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>134900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>133900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>133500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>118600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>117600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>119400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>121700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>123800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>125100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>125900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>123000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>121500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>120200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E49" s="3">
         <v>155800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>157600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>145500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>146100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>147100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>137400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>138900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>117800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>119100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>120400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>121600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>122900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>124200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>125400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>126800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>128200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>129600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>170200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>171600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>173000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>174400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>175900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E52" s="3">
         <v>10500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>3800</v>
       </c>
       <c r="T52" s="3">
         <v>3800</v>
       </c>
       <c r="U52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V52" s="3">
         <v>2600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>599300</v>
+      </c>
+      <c r="E54" s="3">
         <v>596400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>567300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>521100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>477800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>475000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>472600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>446000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>423100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>399500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>389300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>386600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>393000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>399000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>385600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>388400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>389800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>396700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>391000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>430700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>431900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>433300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>418600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>414700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E57" s="3">
         <v>56400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>29300</v>
       </c>
       <c r="R57" s="3">
         <v>29300</v>
       </c>
       <c r="S57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="T57" s="3">
         <v>35500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>28100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>26800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>27900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>29800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>21900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4198,330 +4332,345 @@
         <v>9900</v>
       </c>
       <c r="W58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="X58" s="3">
         <v>9200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E59" s="3">
         <v>21900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>18600</v>
       </c>
       <c r="H59" s="3">
         <v>18600</v>
       </c>
       <c r="I59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J59" s="3">
         <v>23200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E60" s="3">
         <v>88200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>59000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>58800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>51300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>55700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>53100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>58800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>56500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>60600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>48500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>52500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>45000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>55700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>41900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E61" s="3">
         <v>149200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>115600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>105900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>73900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>85900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>88800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>85800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>65800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>55800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>57700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>64700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>74700</v>
       </c>
       <c r="Q61" s="3">
         <v>74700</v>
       </c>
       <c r="R61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="S61" s="3">
         <v>80600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>75800</v>
-      </c>
-      <c r="T61" s="3">
-        <v>90800</v>
       </c>
       <c r="U61" s="3">
         <v>90800</v>
       </c>
       <c r="V61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="W61" s="3">
         <v>104200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>102700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>112200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>94600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>105100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E62" s="3">
         <v>45800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>48000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>48100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>47400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>45200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>51100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>51500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>50500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>50400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>267900</v>
+      </c>
+      <c r="E66" s="3">
         <v>283100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>264700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>229500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>193500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>199800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>207300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>189100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>168400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>156000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>154400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>163600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>175600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>167700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>170900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>172000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>184400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>188700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>187500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>206200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>208600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>200800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>197400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>286200</v>
+      </c>
+      <c r="E72" s="3">
         <v>271100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>254400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>246800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>239300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>227900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>213900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>207400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>202000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>192300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>182900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>180700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>178600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>171800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>164400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>163100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>161400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>156400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>147200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>189400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>172200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>171700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>165900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>166200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>331400</v>
+      </c>
+      <c r="E76" s="3">
         <v>313300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>302600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>291700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>284300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>275200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>265200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>256900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>254600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>243400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>233500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>232200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>229400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>223400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>217900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>217500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>217800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>212300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>202200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>243300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>225700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>224700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>217800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>217300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44556</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44374</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44283</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44192</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42736</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E81" s="3">
         <v>19700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-37400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,40 +6013,41 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>6000</v>
       </c>
       <c r="G83" s="3">
         <v>6000</v>
       </c>
       <c r="H83" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I83" s="3">
         <v>5900</v>
       </c>
       <c r="J83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K83" s="3">
         <v>5700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>5400</v>
       </c>
       <c r="N83" s="3">
         <v>5400</v>
@@ -5866,34 +6065,37 @@
         <v>5400</v>
       </c>
       <c r="S83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="T83" s="3">
         <v>5500</v>
       </c>
       <c r="U83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5400</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>5200</v>
       </c>
       <c r="AA83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-6600</v>
       </c>
       <c r="X91" s="3">
         <v>-6600</v>
       </c>
       <c r="Y91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-6500</v>
       </c>
       <c r="X94" s="3">
         <v>-6500</v>
       </c>
       <c r="Y94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,31 +6953,32 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="E96" s="3">
         <v>-3000</v>
       </c>
       <c r="F96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2600</v>
       </c>
       <c r="I96" s="3">
         <v>-2600</v>
       </c>
       <c r="J96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K96" s="3">
         <v>-2500</v>
@@ -6756,49 +6990,52 @@
         <v>-2500</v>
       </c>
       <c r="N96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="O96" s="3">
         <v>-2400</v>
       </c>
       <c r="P96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="Q96" s="3">
         <v>-2500</v>
       </c>
       <c r="R96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="S96" s="3">
         <v>-2400</v>
       </c>
       <c r="T96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7271,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E100" s="3">
         <v>23400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>28100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-17400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>14400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,373 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44556</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44374</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44283</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44192</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43464</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42736</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E8" s="3">
         <v>241200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>246500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>223000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>187100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>183300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>181200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>163000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>142900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>147800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>143200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>132400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>120400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>140000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>147300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>133100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>128200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>145300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>149800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>127000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>118100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>125400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>133700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>118600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>112400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E9" s="3">
         <v>194800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>199800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>186700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>153100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>146000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>142300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>131200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>114700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>115000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>112200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>98900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>118500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>112400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>107100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>119600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>121300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>109200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>99200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>101300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>107700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>96700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>91400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E10" s="3">
         <v>46400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>28500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>21000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1060,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1141,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1224,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1248,17 +1268,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1266,11 +1286,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>39100</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1287,8 +1307,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1420,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E17" s="3">
         <v>214700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>218700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>207800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>172800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>163700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>159100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>150100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>131200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>124700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>113600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>126900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>133400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>127300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>121400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>134500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>136300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>163000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>113400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>116100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>123500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>111200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>106400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E18" s="3">
         <v>26500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-36000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,64 +1617,65 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-600</v>
       </c>
       <c r="Q20" s="3">
         <v>-600</v>
       </c>
       <c r="R20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-900</v>
       </c>
       <c r="V20" s="3">
         <v>-900</v>
@@ -1650,116 +1684,122 @@
         <v>-900</v>
       </c>
       <c r="X20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-700</v>
       </c>
       <c r="AB20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E21" s="3">
         <v>32900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>18000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-31200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>14000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>15300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>12200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1768,25 +1808,25 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1824,168 +1864,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>24700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-36900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3900</v>
       </c>
       <c r="G24" s="3">
         <v>3900</v>
       </c>
       <c r="H24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I24" s="3">
         <v>5300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1500</v>
       </c>
       <c r="S24" s="3">
         <v>1500</v>
       </c>
       <c r="T24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E26" s="3">
         <v>18000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-38100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E27" s="3">
         <v>18000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-38100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2345,17 +2406,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2363,14 +2424,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>13200</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2384,8 +2445,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,64 +2611,67 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>600</v>
       </c>
       <c r="Q32" s="3">
         <v>600</v>
       </c>
       <c r="R32" s="3">
+        <v>600</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
-      </c>
-      <c r="U32" s="3">
-        <v>900</v>
       </c>
       <c r="V32" s="3">
         <v>900</v>
@@ -2610,102 +2680,108 @@
         <v>900</v>
       </c>
       <c r="X32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>600</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>700</v>
       </c>
       <c r="AB32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E33" s="3">
         <v>18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-37400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E35" s="3">
         <v>18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-37400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44556</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44374</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44283</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44192</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43464</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42736</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3095,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,328 +3259,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E43" s="3">
         <v>131400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>138800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>122800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>102800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>90100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>90900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>90800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>77800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>69500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>56700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>65400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>69000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>64500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>61500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>66400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>67900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>66200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>57900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>60000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>62800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>58600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>53300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E44" s="3">
         <v>113100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>105000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>95000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>76200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>70300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>63900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>64700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>63200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>54400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>57500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>60800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>58700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>60500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>67700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>67800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>66400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>59700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>62700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>65900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>65600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>51200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>50300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>240200</v>
+      </c>
+      <c r="E46" s="3">
         <v>251600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>253600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>227700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>209500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>169700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>167800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>163000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>155500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>142600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>140400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>127000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>133100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>138100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>139400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>142200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>139900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>142900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>135000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>133100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>132200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>134400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>120900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>117000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,168 +3674,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E48" s="3">
         <v>181000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>176400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>172500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>158400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>154200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>153700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>156200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>147100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>136000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>135800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>135400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>134900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>133900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>133500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>118600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>117600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>119400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>121700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>123800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>125100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>125900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>123000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>121500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>120200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>152300</v>
+      </c>
+      <c r="E49" s="3">
         <v>154100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>155800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>157600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>145500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>146100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>147100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>137400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>138900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>117800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>119100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>120400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>121600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>124200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>125400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>126800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>128200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>129600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>170200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>171600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>173000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>174400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>175900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4006,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E52" s="3">
         <v>12600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
-      </c>
-      <c r="T52" s="3">
-        <v>3800</v>
       </c>
       <c r="U52" s="3">
         <v>3800</v>
       </c>
       <c r="V52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W52" s="3">
         <v>2600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4172,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E54" s="3">
         <v>599300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>596400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>567300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>521100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>477800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>475000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>472600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>446000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>423100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>399500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>389300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>386600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>393000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>399000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>385600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>388400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>389800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>396700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>391000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>430700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>431900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>433300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>418600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>414700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,88 +4319,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E57" s="3">
         <v>60900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>29300</v>
       </c>
       <c r="S57" s="3">
         <v>29300</v>
       </c>
       <c r="T57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="U57" s="3">
         <v>35500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>36700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>33400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>28100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>26800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>27900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>29800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>21900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4335,342 +4469,357 @@
         <v>9900</v>
       </c>
       <c r="X58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Y58" s="3">
         <v>9200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E59" s="3">
         <v>20100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>18600</v>
       </c>
       <c r="I59" s="3">
         <v>18600</v>
       </c>
       <c r="J59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>12700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E60" s="3">
         <v>90900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>58800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>51300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>53900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>53100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>58800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>56500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>60600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>48500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>52500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>45000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>55700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>41900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E61" s="3">
         <v>130700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>149200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>115600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>105900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>73900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>85900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>88800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>85800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>65800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>55800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>57700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>64700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>74700</v>
       </c>
       <c r="R61" s="3">
         <v>74700</v>
       </c>
       <c r="S61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="T61" s="3">
         <v>80600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>75800</v>
-      </c>
-      <c r="U61" s="3">
-        <v>90800</v>
       </c>
       <c r="V61" s="3">
         <v>90800</v>
       </c>
       <c r="W61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="X61" s="3">
         <v>104200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>102700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>112200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>94600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>105100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E62" s="3">
         <v>46300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>48000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>48100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>47400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>43900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>45000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>34700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>51100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>51500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>50500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>50400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5064,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>252800</v>
+      </c>
+      <c r="E66" s="3">
         <v>267900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>283100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>264700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>229500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>193500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>199800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>207300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>189100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>168400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>156000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>155800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>154400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>163600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>175600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>167700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>170900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>172000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>184400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>188700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>187500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>206200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>208600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>200800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>197400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5510,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E72" s="3">
         <v>286200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>271100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>254400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>246800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>239300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>227900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>213900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>207400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>202000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>192300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>182900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>180700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>178600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>171800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>164400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>163100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>161400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>156400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>147200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>189400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>172200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>171700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>165900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>166200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>341200</v>
+      </c>
+      <c r="E76" s="3">
         <v>331400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>313300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>302600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>291700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>284300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>275200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>265200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>256900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>254600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>243400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>233500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>232200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>229400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>223400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>217900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>217500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>217800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>212300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>202200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>243300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>225700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>224700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>217800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>217300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44556</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44374</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44283</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44192</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43464</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42736</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E81" s="3">
         <v>18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-37400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,43 +6212,44 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>6000</v>
       </c>
       <c r="H83" s="3">
         <v>6000</v>
       </c>
       <c r="I83" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J83" s="3">
         <v>5900</v>
       </c>
       <c r="K83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L83" s="3">
         <v>5700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>5400</v>
       </c>
       <c r="O83" s="3">
         <v>5400</v>
@@ -6068,34 +6267,37 @@
         <v>5400</v>
       </c>
       <c r="T83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="U83" s="3">
         <v>5500</v>
       </c>
       <c r="V83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W83" s="3">
         <v>5600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5400</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>5200</v>
       </c>
       <c r="AB83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6708,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E89" s="3">
         <v>28200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6824,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-6600</v>
       </c>
       <c r="Y91" s="3">
         <v>-6600</v>
       </c>
       <c r="Z91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7071,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-6500</v>
       </c>
       <c r="Y94" s="3">
         <v>-6500</v>
       </c>
       <c r="Z94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7187,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6963,25 +7197,25 @@
         <v>-2900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F96" s="3">
         <v>-3000</v>
       </c>
       <c r="G96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2600</v>
       </c>
       <c r="J96" s="3">
         <v>-2600</v>
       </c>
       <c r="K96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="L96" s="3">
         <v>-2500</v>
@@ -6993,49 +7227,52 @@
         <v>-2500</v>
       </c>
       <c r="O96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="P96" s="3">
         <v>-2400</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="R96" s="3">
         <v>-2500</v>
       </c>
       <c r="S96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="T96" s="3">
         <v>-2400</v>
       </c>
       <c r="U96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,88 +7517,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>23400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-17400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>14400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7683,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,385 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
         <v>44927</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44556</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44374</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44283</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44192</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43464</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42736</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>228100</v>
+      </c>
+      <c r="E8" s="3">
         <v>219200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>241200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>246500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>223000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>187100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>183300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>181200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>163000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>142900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>147800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>143200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>132400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>120400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>140000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>147300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>133100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>128200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>145300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>149800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>127000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>118100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>125400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>133700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>118600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>112400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E9" s="3">
         <v>182900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>194800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>199800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>186700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>153100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>146000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>142300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>131200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>114700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>112200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>109800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>98900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>112000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>118500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>112400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>107100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>119600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>121300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>109200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>99200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>101300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>107700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>96700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>91400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E10" s="3">
         <v>36300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>28500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>24100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>21900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>21000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1271,17 +1290,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1289,11 +1308,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>39100</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1310,8 +1329,11 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1393,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E17" s="3">
         <v>204000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>214700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>218700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>207800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>172800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>163700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>159100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>150100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>131200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>124700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>113600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>126900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>133400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>127300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>121400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>134500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>136300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>163000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>113400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>116100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>123500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>111200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>106400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E18" s="3">
         <v>15200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-36000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,58 +1660,58 @@
         <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-600</v>
       </c>
       <c r="R20" s="3">
         <v>-600</v>
       </c>
       <c r="S20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-900</v>
       </c>
       <c r="W20" s="3">
         <v>-900</v>
@@ -1687,122 +1720,128 @@
         <v>-900</v>
       </c>
       <c r="Y20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-600</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-700</v>
       </c>
       <c r="AC20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E21" s="3">
         <v>22700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>33700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>15600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-31200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>14000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>15300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>12200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>10500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1811,25 +1850,25 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1867,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E23" s="3">
         <v>14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-36900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>9500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3900</v>
       </c>
       <c r="H24" s="3">
         <v>3900</v>
       </c>
       <c r="I24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J24" s="3">
         <v>5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1500</v>
       </c>
       <c r="T24" s="3">
         <v>1500</v>
       </c>
       <c r="U24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E26" s="3">
         <v>10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-38100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E27" s="3">
         <v>10700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-38100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2409,17 +2469,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2427,14 +2487,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>13200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2448,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,58 +2692,58 @@
         <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>600</v>
       </c>
       <c r="R32" s="3">
         <v>600</v>
       </c>
       <c r="S32" s="3">
+        <v>600</v>
+      </c>
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
-      </c>
-      <c r="V32" s="3">
-        <v>900</v>
       </c>
       <c r="W32" s="3">
         <v>900</v>
@@ -2683,105 +2752,111 @@
         <v>900</v>
       </c>
       <c r="Y32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>600</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>700</v>
       </c>
       <c r="AC32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E33" s="3">
         <v>10700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-37400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E35" s="3">
         <v>10700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-37400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
         <v>44927</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44556</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44374</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44283</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44192</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43464</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42736</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3262,340 +3351,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E43" s="3">
         <v>125500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>131400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>138800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>122800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>102800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>90100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>90900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>90800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>77800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>69500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>56700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>65400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>69000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>64500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>61500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>66400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>67900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>66200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>57900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>60000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>62800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>58600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>53300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E44" s="3">
         <v>101600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>113100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>105000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>95000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>76200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>70300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>63900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>64700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>63400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>54400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>57500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>60800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>58700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>60500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>67700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>67800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>66400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>59700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>62700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>65900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>65600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>51200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>50300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E46" s="3">
         <v>240200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>251600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>253600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>227700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>209500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>169700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>167800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>163000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>155500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>142600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>140400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>127000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>133100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>138100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>139400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>142200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>139900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>142900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>135000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>133100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>132200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>134400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>120900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>117000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3677,174 +3781,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E48" s="3">
         <v>188900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>181000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>176400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>172500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>158400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>154200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>153700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>156200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>147100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>136000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>135800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>135400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>134900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>133900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>133500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>118600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>117600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>119400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>121700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>123800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>125100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>125900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>123000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>121500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>120200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E49" s="3">
         <v>152300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>154100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>155800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>157600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>146100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>145500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>147100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>137400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>138900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>117800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>119100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>120400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>121600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>124200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>125400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>126800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>128200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>129600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>170200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>171600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>173000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>174400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>175900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E52" s="3">
         <v>12500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3200</v>
-      </c>
-      <c r="U52" s="3">
-        <v>3800</v>
       </c>
       <c r="V52" s="3">
         <v>3800</v>
       </c>
       <c r="W52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X52" s="3">
         <v>2600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>590500</v>
+      </c>
+      <c r="E54" s="3">
         <v>594000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>599300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>596400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>567300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>521100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>477800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>475000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>472600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>446000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>423100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>399500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>389300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>386600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>393000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>399000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>385600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>388400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>389800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>396700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>391000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>430700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>431900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>433300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>418600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>414700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,91 +4449,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E57" s="3">
         <v>50600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>29300</v>
       </c>
       <c r="T57" s="3">
         <v>29300</v>
       </c>
       <c r="U57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="V57" s="3">
         <v>35500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>36700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>33400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>28100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>26800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>27900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>29800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>21900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4472,354 +4605,369 @@
         <v>9900</v>
       </c>
       <c r="Y58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Z58" s="3">
         <v>9200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E59" s="3">
         <v>24400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>18600</v>
       </c>
       <c r="J59" s="3">
         <v>18600</v>
       </c>
       <c r="K59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="L59" s="3">
         <v>23200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>12700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E60" s="3">
         <v>84900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>101500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>58800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>62200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>53900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>55400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>53100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>58800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>56500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>60600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>48500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>52500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>45000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>55700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>41900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E61" s="3">
         <v>120700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>130700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>149200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>115600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>105900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>73900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>85900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>88800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>85800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>65800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>55800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>49800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>57700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>64700</v>
-      </c>
-      <c r="R61" s="3">
-        <v>74700</v>
       </c>
       <c r="S61" s="3">
         <v>74700</v>
       </c>
       <c r="T61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="U61" s="3">
         <v>80600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>75800</v>
-      </c>
-      <c r="V61" s="3">
-        <v>90800</v>
       </c>
       <c r="W61" s="3">
         <v>90800</v>
       </c>
       <c r="X61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="Y61" s="3">
         <v>104200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>102700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>112200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>94600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>105100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E62" s="3">
         <v>47300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>47600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>48000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>43600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>43900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>45400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>51100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>51500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>50500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>50400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E66" s="3">
         <v>252800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>267900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>283100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>264700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>229500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>193500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>199800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>207300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>189100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>168400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>156000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>155800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>154400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>163600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>175600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>167700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>170900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>172000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>184400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>188700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>187500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>206200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>208600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>200800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>197400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>302400</v>
+      </c>
+      <c r="E72" s="3">
         <v>294000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>286200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>271100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>254400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>246800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>239300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>227900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>213900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>207400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>202000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>192300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>182900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>180700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>178600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>171800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>164400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>163100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>161400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>156400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>147200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>189400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>172200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>171700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>165900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>166200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E76" s="3">
         <v>341200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>331400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>313300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>302600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>291700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>284300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>275200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>265200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>256900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>254600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>243400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>233500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>232200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>229400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>223400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>217900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>217500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>217800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>212300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>202200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>243300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>225700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>224700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>217800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>217300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
         <v>44927</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44556</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44374</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44283</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44192</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43464</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42736</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E81" s="3">
         <v>10700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-37400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,46 +6410,47 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6000</v>
       </c>
       <c r="I83" s="3">
         <v>6000</v>
       </c>
       <c r="J83" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K83" s="3">
         <v>5900</v>
       </c>
       <c r="L83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M83" s="3">
         <v>5700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>5400</v>
       </c>
       <c r="P83" s="3">
         <v>5400</v>
@@ -6270,34 +6468,37 @@
         <v>5400</v>
       </c>
       <c r="U83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="V83" s="3">
         <v>5500</v>
       </c>
       <c r="W83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="X83" s="3">
         <v>5600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5400</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>5200</v>
       </c>
       <c r="AC83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E89" s="3">
         <v>25700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>12800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-6600</v>
       </c>
       <c r="Z91" s="3">
         <v>-6600</v>
       </c>
       <c r="AA91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-6500</v>
       </c>
       <c r="Z94" s="3">
         <v>-6500</v>
       </c>
       <c r="AA94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,37 +7420,38 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2900</v>
+        <v>-3200</v>
       </c>
       <c r="E96" s="3">
         <v>-2900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G96" s="3">
         <v>-3000</v>
       </c>
       <c r="H96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2600</v>
       </c>
       <c r="K96" s="3">
         <v>-2600</v>
       </c>
       <c r="L96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="M96" s="3">
         <v>-2500</v>
@@ -7230,49 +7463,52 @@
         <v>-2500</v>
       </c>
       <c r="P96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="Q96" s="3">
         <v>-2400</v>
       </c>
       <c r="R96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="S96" s="3">
         <v>-2500</v>
       </c>
       <c r="T96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="U96" s="3">
         <v>-2400</v>
       </c>
       <c r="V96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>23400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>28100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-17400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>14400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7686,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44927</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44556</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44374</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44283</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44192</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43464</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42736</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E8" s="3">
         <v>228100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>219200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>241200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>246500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>223000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>187100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>183300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>181200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>163000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>142900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>147800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>143200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>132400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>120400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>140000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>147300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>133100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>128200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>145300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>149800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>127000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>118100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>125400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>133700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>118600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>112400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>199100</v>
+      </c>
+      <c r="E9" s="3">
         <v>192400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>182900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>194800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>199800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>186700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>153100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>146000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>131200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>114700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>109800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>98900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>112000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>118500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>112400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>107100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>119600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>121300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>109200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>99200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>101300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>107700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>96700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>91400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E10" s="3">
         <v>35700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>28500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>17800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>24100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>26000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>21900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>21000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1293,17 +1313,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1311,11 +1331,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>39100</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E17" s="3">
         <v>209700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>204000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>214700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>218700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>207800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>172800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>163700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>159100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>150100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>131200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>124700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>113600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>126900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>133400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>127300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>121400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>134500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>136300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>163000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>113400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>116100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>123500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>111200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>106400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E18" s="3">
         <v>18400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>9300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>7400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>6000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,70 +1684,71 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-600</v>
       </c>
       <c r="S20" s="3">
         <v>-600</v>
       </c>
       <c r="T20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-900</v>
       </c>
       <c r="X20" s="3">
         <v>-900</v>
@@ -1723,128 +1757,134 @@
         <v>-900</v>
       </c>
       <c r="Z20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>-700</v>
       </c>
       <c r="AD20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E21" s="3">
         <v>26000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>33700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>15600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-31200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>14000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>15300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>12200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>10500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1853,25 +1893,25 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1909,180 +1949,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E23" s="3">
         <v>17500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-36900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>8500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E24" s="3">
         <v>5900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3900</v>
       </c>
       <c r="I24" s="3">
         <v>3900</v>
       </c>
       <c r="J24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1500</v>
       </c>
       <c r="U24" s="3">
         <v>1500</v>
       </c>
       <c r="V24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E26" s="3">
         <v>11600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E27" s="3">
         <v>11600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2472,17 +2533,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2490,14 +2551,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>13200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,70 +2750,73 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>600</v>
       </c>
       <c r="S32" s="3">
         <v>600</v>
       </c>
       <c r="T32" s="3">
+        <v>600</v>
+      </c>
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
-      </c>
-      <c r="W32" s="3">
-        <v>900</v>
       </c>
       <c r="X32" s="3">
         <v>900</v>
@@ -2755,108 +2825,114 @@
         <v>900</v>
       </c>
       <c r="Z32" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>600</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>700</v>
       </c>
       <c r="AD32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E33" s="3">
         <v>11600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-37400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E35" s="3">
         <v>11600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-37400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44927</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44556</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44374</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44283</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44192</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43464</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42736</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,352 +3444,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E43" s="3">
         <v>129300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>125500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>131400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>138800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>122800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>102800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>90100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>90900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>90800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>77800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>69500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>56700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>65400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>69000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>64500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>61500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>66400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>67900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>66200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>57900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>60000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>62800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>58600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>53300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E44" s="3">
         <v>88800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>101600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>113100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>105000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>95000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>76200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>70300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>63900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>64700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>63200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>63400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>54400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>57500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>60800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>58700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>60500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>67700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>67800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>66400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>59700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>62700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>65900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>65600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>51200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>50300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>5100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E46" s="3">
         <v>232000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>240200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>251600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>253600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>227700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>209500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>169700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>167800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>163000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>155500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>142600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>140400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>131000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>127000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>133100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>138100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>139400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>142200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>139900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>142900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>135000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>133100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>132200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>134400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>120900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>117000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,180 +3889,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>201900</v>
+      </c>
+      <c r="E48" s="3">
         <v>196000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>188900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>181000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>176400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>172500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>158400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>154200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>153700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>156200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>147100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>136000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>135800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>135400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>134900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>133900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>133500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>118600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>117600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>119400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>121700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>123800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>125100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>125900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>123000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>121500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>120200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E49" s="3">
         <v>150500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>152300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>154100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>155800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>157600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>146100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>145500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>147100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>137400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>138900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>117800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>119100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>120400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>121600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>122900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>124200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>125400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>126800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>128200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>129600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>170200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>171600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>173000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>174400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>175900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
         <v>12000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
-      </c>
-      <c r="V52" s="3">
-        <v>3800</v>
       </c>
       <c r="W52" s="3">
         <v>3800</v>
       </c>
       <c r="X52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E54" s="3">
         <v>590500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>594000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>599300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>596400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>567300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>521100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>477800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>475000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>472600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>446000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>423100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>399500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>389300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>386600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>393000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>399000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>385600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>388400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>389800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>396700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>391000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>430700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>431900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>433300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>418600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>414700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,94 +4580,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E57" s="3">
         <v>53700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32000</v>
-      </c>
-      <c r="T57" s="3">
-        <v>29300</v>
       </c>
       <c r="U57" s="3">
         <v>29300</v>
       </c>
       <c r="V57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="W57" s="3">
         <v>35500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>36700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>28100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>26800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>27900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>29800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>21900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4608,366 +4742,381 @@
         <v>9900</v>
       </c>
       <c r="Z58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="AA58" s="3">
         <v>9200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E59" s="3">
         <v>27300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>18600</v>
       </c>
       <c r="K59" s="3">
         <v>18600</v>
       </c>
       <c r="L59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="M59" s="3">
         <v>23200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>16400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>12700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E60" s="3">
         <v>90900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>84900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>101500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>58800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>62200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>53900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>55700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>55400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>53100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>58800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>56500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>60600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>48500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>52500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>45000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>55700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>41900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E61" s="3">
         <v>101700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>120700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>130700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>149200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>115600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>105900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>73900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>85900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>88800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>85800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>65800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>55800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>57700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>64700</v>
-      </c>
-      <c r="S61" s="3">
-        <v>74700</v>
       </c>
       <c r="T61" s="3">
         <v>74700</v>
       </c>
       <c r="U61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="V61" s="3">
         <v>80600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>75800</v>
-      </c>
-      <c r="W61" s="3">
-        <v>90800</v>
       </c>
       <c r="X61" s="3">
         <v>90800</v>
       </c>
       <c r="Y61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="Z61" s="3">
         <v>104200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>102700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>112200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>94600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>105100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E62" s="3">
         <v>47900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>46300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>47600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>48000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>43900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>43600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>43900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>45200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>37400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>34700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>51100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>51500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>50500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>50400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E66" s="3">
         <v>240500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>252800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>267900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>283100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>264700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>229500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>193500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>199800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>207300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>189100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>168400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>156000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>155800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>154400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>163600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>175600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>167700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>170900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>172000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>184400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>188700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>187500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>206200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>208600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>200800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>197400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>322700</v>
+      </c>
+      <c r="E72" s="3">
         <v>302400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>294000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>286200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>271100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>254400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>246800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>239300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>227900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>213900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>207400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>202000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>192300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>182900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>180700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>178600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>171800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>164400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>163100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>161400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>156400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>147200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>189400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>172200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>171700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>165900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>166200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E76" s="3">
         <v>350000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>341200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>331400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>313300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>302600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>291700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>284300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>275200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>265200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>256900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>254600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>243400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>233500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>232200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>229400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>223400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>217900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>217500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>217800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>212300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>202200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>243300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>225700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>224700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>217800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>217300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44927</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44556</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44374</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44283</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44192</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43464</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42736</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E81" s="3">
         <v>11600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-37400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6420,40 +6619,40 @@
         <v>7100</v>
       </c>
       <c r="E83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>6000</v>
       </c>
       <c r="J83" s="3">
         <v>6000</v>
       </c>
       <c r="K83" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="L83" s="3">
         <v>5900</v>
       </c>
       <c r="M83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N83" s="3">
         <v>5700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>5400</v>
       </c>
       <c r="Q83" s="3">
         <v>5400</v>
@@ -6471,34 +6670,37 @@
         <v>5400</v>
       </c>
       <c r="V83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="W83" s="3">
         <v>5500</v>
       </c>
       <c r="X83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Y83" s="3">
         <v>5600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5400</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>5200</v>
       </c>
       <c r="AD83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E89" s="3">
         <v>32900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>17000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>16400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-11900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>13900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-6600</v>
       </c>
       <c r="AA91" s="3">
         <v>-6600</v>
       </c>
       <c r="AB91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-5800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-6500</v>
       </c>
       <c r="AA94" s="3">
         <v>-6500</v>
       </c>
       <c r="AB94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-5700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-5500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7430,31 +7664,31 @@
         <v>-3200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2900</v>
+        <v>-3200</v>
       </c>
       <c r="F96" s="3">
         <v>-2900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H96" s="3">
         <v>-3000</v>
       </c>
       <c r="I96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2600</v>
       </c>
       <c r="L96" s="3">
         <v>-2600</v>
       </c>
       <c r="M96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="N96" s="3">
         <v>-2500</v>
@@ -7466,49 +7700,52 @@
         <v>-2500</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="R96" s="3">
         <v>-2400</v>
       </c>
       <c r="S96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="T96" s="3">
         <v>-2500</v>
       </c>
       <c r="U96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="V96" s="3">
         <v>-2400</v>
       </c>
       <c r="W96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-4500</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8008,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>23400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>28100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-17400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>14400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-5700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,90 +8186,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-8300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HWKN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>HWKN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44927</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44556</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44374</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44283</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44192</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43464</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42736</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E8" s="3">
         <v>251100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>228100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>219200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>241200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>246500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>223000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>187100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>183300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>181200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>163000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>142900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>147800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>143200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>132400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>120400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>140000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>147300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>133100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>128200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>145300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>149800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>127000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>118100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>125400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>133700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>118600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>112400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>182600</v>
+      </c>
+      <c r="E9" s="3">
         <v>199100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>192400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>182900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>194800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>199800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>186700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>153100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>146000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>142300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>131200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>114700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>98900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>112000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>118500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>112400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>107100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>119600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>121300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>109200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>99200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>101300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>107700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>96700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>91400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E10" s="3">
         <v>52000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>46700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>28800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>20700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>28500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>17800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>24100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>26000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>21900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>21000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1283,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1316,17 +1336,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1334,11 +1354,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>39100</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1355,8 +1375,11 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E17" s="3">
         <v>218600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>209700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>204000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>214700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>218700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>207800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>172800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>163700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>159100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>150100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>131200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>113600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>126900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>133400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>127300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>121400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>134500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>136300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>163000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>113400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>116100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>123500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>111200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>106400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>109100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E18" s="3">
         <v>32500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>9300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>10200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>7400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>6000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,73 +1718,74 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-600</v>
       </c>
       <c r="T20" s="3">
         <v>-600</v>
       </c>
       <c r="U20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-900</v>
       </c>
       <c r="Y20" s="3">
         <v>-900</v>
@@ -1760,134 +1794,140 @@
         <v>-900</v>
       </c>
       <c r="AA20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-600</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>-700</v>
       </c>
       <c r="AE20" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E21" s="3">
         <v>39900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>18000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-31200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>14000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>15300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>12200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>10500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1896,25 +1936,25 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
       </c>
       <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1952,186 +1992,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E23" s="3">
         <v>31700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>12500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-36900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>8500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>9500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>6800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>5400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3900</v>
       </c>
       <c r="J24" s="3">
         <v>3900</v>
       </c>
       <c r="K24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1500</v>
       </c>
       <c r="V24" s="3">
         <v>1500</v>
       </c>
       <c r="W24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1800</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E26" s="3">
         <v>23400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-38100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E27" s="3">
         <v>23400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-38100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>5800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2536,17 +2597,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2554,14 +2615,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>13200</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,73 +2820,76 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>600</v>
       </c>
       <c r="T32" s="3">
         <v>600</v>
       </c>
       <c r="U32" s="3">
+        <v>600</v>
+      </c>
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
-      </c>
-      <c r="X32" s="3">
-        <v>900</v>
       </c>
       <c r="Y32" s="3">
         <v>900</v>
@@ -2828,111 +2898,117 @@
         <v>900</v>
       </c>
       <c r="AA32" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB32" s="3">
         <v>800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>600</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>700</v>
       </c>
       <c r="AE32" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E33" s="3">
         <v>23400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-37400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>5800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E35" s="3">
         <v>23400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-37400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>5800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44927</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44556</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44374</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44283</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44192</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43464</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42736</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,97 +3355,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3447,364 +3537,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E43" s="3">
         <v>138300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>129300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>125500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>131400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>138800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>122800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>102800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>90100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>90900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>90800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>77800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>74500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>69500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>56700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>65400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>69000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>64500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>61500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>66400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>67900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>66200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>57900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>60000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>62800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>58600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>53300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E44" s="3">
         <v>76900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>88800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>101600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>113100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>105000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>95000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>76200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>70300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>67900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>64700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>63200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>63400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>54400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>57500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>60800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>58700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>60500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>67700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>67800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>66400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>59700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>62700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>65900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>65600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>51200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>50300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>5100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E46" s="3">
         <v>226500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>232000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>240200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>251600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>253600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>227700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>209500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>167800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>163000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>155500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>142600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>140400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>131000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>127000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>133100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>138100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>139400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>142200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>139900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>142900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>135000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>133100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>132200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>134400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>120900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>117000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>126400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3892,186 +3997,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E48" s="3">
         <v>201900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>196000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>188900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>181000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>176400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>172500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>158400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>154200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>153700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>156200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>147100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>136000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>135800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>135400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>134900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>133900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>133500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>118600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>117600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>119400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>121700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>123800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>125100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>125900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>123000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>121500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>120200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>148900</v>
+      </c>
+      <c r="E49" s="3">
         <v>148800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>150500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>152300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>154100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>155800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>157600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>145500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>146100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>145500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>147100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>137400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>138900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>117800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>119100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>120400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>121600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>122900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>124200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>125400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>126800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>128200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>129600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>170200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>171600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>173000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>174400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>175900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>177600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3200</v>
-      </c>
-      <c r="W52" s="3">
-        <v>3800</v>
       </c>
       <c r="X52" s="3">
         <v>3800</v>
       </c>
       <c r="Y52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>575300</v>
+      </c>
+      <c r="E54" s="3">
         <v>592000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>590500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>594000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>599300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>596400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>567300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>521100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>477800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>475000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>472600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>446000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>423100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>399500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>389300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>386600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>393000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>399000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>385600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>388400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>389800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>396700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>391000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>430700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>431900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>433300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>418600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>414700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>422900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,97 +4711,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E57" s="3">
         <v>55600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>66700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>29300</v>
       </c>
       <c r="V57" s="3">
         <v>29300</v>
       </c>
       <c r="W57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="X57" s="3">
         <v>35500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>36700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>33400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>28100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>26800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>27900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>29800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>21900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4745,378 +4879,393 @@
         <v>9900</v>
       </c>
       <c r="AA58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="AB58" s="3">
         <v>9200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>7400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E59" s="3">
         <v>28800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>18600</v>
       </c>
       <c r="L59" s="3">
         <v>18600</v>
       </c>
       <c r="M59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="N59" s="3">
         <v>23200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>16400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>12700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E60" s="3">
         <v>94300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>84900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>70500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>58800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>51300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>53900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>55700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>55400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>53100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>58800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>56500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>60600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>48500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>52500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>45000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>55700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>41900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E61" s="3">
         <v>78400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>101700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>120700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>130700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>149200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>115600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>105900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>73900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>85900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>88800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>85800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>65800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>55800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>49800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>57700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>64700</v>
-      </c>
-      <c r="T61" s="3">
-        <v>74700</v>
       </c>
       <c r="U61" s="3">
         <v>74700</v>
       </c>
       <c r="V61" s="3">
+        <v>74700</v>
+      </c>
+      <c r="W61" s="3">
         <v>80600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>75800</v>
-      </c>
-      <c r="X61" s="3">
-        <v>90800</v>
       </c>
       <c r="Y61" s="3">
         <v>90800</v>
       </c>
       <c r="Z61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="AA61" s="3">
         <v>104200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>102700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>112200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>94600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>105100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>106900</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E62" s="3">
         <v>48300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>47600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>48000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>43900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>43600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>43900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>45000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>45200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>37200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>37100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>37400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>34700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>51100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>51500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>50500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>50400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E66" s="3">
         <v>221000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>240500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>252800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>267900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>283100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>264700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>229500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>193500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>199800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>207300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>189100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>168400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>156000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>155800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>154400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>163600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>175600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>167700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>170900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>172000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>184400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>188700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>187500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>206200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>208600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>200800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>197400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>210100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>342500</v>
+      </c>
+      <c r="E72" s="3">
         <v>322700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>302400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>294000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>286200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>271100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>254400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>246800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>239300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>227900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>213900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>207400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>202000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>192300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>182900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>180700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>178600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>171800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>164400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>163100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>161400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>156400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>147200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>189400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>172200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>171700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>165900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>166200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>382700</v>
+      </c>
+      <c r="E76" s="3">
         <v>371000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>350000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>341200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>331400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>313300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>302600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>291700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>284300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>275200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>265200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>256900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>254600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>243400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>233500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>232200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>229400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>223400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>217900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>217500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>217800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>212300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>202200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>243300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>225700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>224700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>217800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>217300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>212800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44927</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44556</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44374</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44283</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44192</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43464</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42736</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E81" s="3">
         <v>23400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-37400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>5800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,52 +6808,53 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="E83" s="3">
         <v>7100</v>
       </c>
       <c r="F83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G83" s="3">
         <v>7000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>6000</v>
       </c>
       <c r="K83" s="3">
         <v>6000</v>
       </c>
       <c r="L83" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="M83" s="3">
         <v>5900</v>
       </c>
       <c r="N83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O83" s="3">
         <v>5700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>5400</v>
       </c>
       <c r="R83" s="3">
         <v>5400</v>
@@ -6673,34 +6872,37 @@
         <v>5400</v>
       </c>
       <c r="W83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="X83" s="3">
         <v>5500</v>
       </c>
       <c r="Y83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Z83" s="3">
         <v>5600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>5400</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>5200</v>
       </c>
       <c r="AE83" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E89" s="3">
         <v>34900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>17000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>12800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>16400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-11900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>13900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-6600</v>
       </c>
       <c r="AB91" s="3">
         <v>-6600</v>
       </c>
       <c r="AC91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-5800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3700</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-6500</v>
       </c>
       <c r="AB94" s="3">
         <v>-6500</v>
       </c>
       <c r="AC94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-5700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-5500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,43 +7888,44 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="E96" s="3">
         <v>-3200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2900</v>
+        <v>-3200</v>
       </c>
       <c r="G96" s="3">
         <v>-2900</v>
       </c>
       <c r="H96" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I96" s="3">
         <v>-3000</v>
       </c>
       <c r="J96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2600</v>
       </c>
       <c r="M96" s="3">
         <v>-2600</v>
       </c>
       <c r="N96" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="O96" s="3">
         <v>-2500</v>
@@ -7703,49 +7937,52 @@
         <v>-2500</v>
       </c>
       <c r="R96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="S96" s="3">
         <v>-2400</v>
       </c>
       <c r="T96" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="U96" s="3">
         <v>-2500</v>
       </c>
       <c r="V96" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="W96" s="3">
         <v>-2400</v>
       </c>
       <c r="X96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-4500</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,97 +8254,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>23400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>28100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-17400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-8900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>14400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-9600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-5700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,93 +8438,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-8300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-4600</v>
       </c>
     </row>
